--- a/SI schematics/3x3.xlsx
+++ b/SI schematics/3x3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubat\Documents\projekt-zaliczenie-npg\SI schematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDEBCA7-3791-4634-AE01-0492B4B6DFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D813E-0919-43A4-A702-C1B3EF787C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{8949F19C-7FE2-47A5-9C94-C8B26AFA58F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8949F19C-7FE2-47A5-9C94-C8B26AFA58F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Move 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="2">
   <si>
     <t>X</t>
   </si>
@@ -60,7 +60,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,6 +76,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -107,12 +113,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1251,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A856E1-C18D-4B5C-BDE8-280C966DF13A}">
   <dimension ref="A1:S139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="K143" sqref="K143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5154,12 +5161,3490 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C28D61-CFC2-4D43-9CF9-8E6E71ACF33E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="I10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="I23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="I34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="3"/>
+      <c r="E82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2"/>
+      <c r="I82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="E91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="I91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="1"/>
+      <c r="I99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G103" s="1"/>
+      <c r="I103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="1"/>
+      <c r="I111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="E115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G119" s="1"/>
+      <c r="I119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K121" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K122" s="2"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="E127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="I127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="I129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K129" s="2"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="E130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K130" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1"/>
+      <c r="E135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135" s="2"/>
+      <c r="I135" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="I139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C143" s="1"/>
+      <c r="E143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2"/>
+      <c r="I143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I149" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I158" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I159" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2"/>
+      <c r="E161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I169" s="1"/>
+      <c r="J169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I170" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SI schematics/3x3.xlsx
+++ b/SI schematics/3x3.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubat\Documents\projekt-zaliczenie-npg\SI schematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D813E-0919-43A4-A702-C1B3EF787C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B6AA7-46AD-4A89-974B-81D7705F1ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8949F19C-7FE2-47A5-9C94-C8B26AFA58F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{8949F19C-7FE2-47A5-9C94-C8B26AFA58F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Move 1" sheetId="1" r:id="rId1"/>
     <sheet name="Move 2" sheetId="2" r:id="rId2"/>
     <sheet name="Move 3" sheetId="3" r:id="rId3"/>
     <sheet name="Move 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Move 1SI" sheetId="5" r:id="rId5"/>
+    <sheet name="Move 2SI" sheetId="6" r:id="rId6"/>
+    <sheet name="Move 3SI" sheetId="7" r:id="rId7"/>
+    <sheet name="Move 4SI" sheetId="8" r:id="rId8"/>
+    <sheet name="Move 5SI" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="2">
   <si>
     <t>X</t>
   </si>
@@ -5163,7 +5168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C28D61-CFC2-4D43-9CF9-8E6E71ACF33E}">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -8647,4 +8652,2274 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3486AE-CA56-475B-94D4-CB0985881ABF}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C1CFEF1-13DB-422A-ACD6-1C8B540B9CD7}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E160047-5317-4167-BA86-4E9C5D780D35}">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="12" max="12" width="8.88671875" style="4"/>
+    <col min="16" max="16" width="8.88671875" style="4"/>
+    <col min="20" max="20" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="Q3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="U3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="Q6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="U6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="M9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="Q9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="U9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="I11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="M11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="U11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="Q13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="U13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="M14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="Q14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="Q15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="U15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="U18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="U19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="M21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="Q21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="U21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="U22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="I23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="M23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="U23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="M27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="Q27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="U27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="Q29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="U29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="M30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E4399F-4AC2-4597-A50F-5D596F9624CC}">
+  <dimension ref="A1:O31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="M21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F443FC-A85D-468C-B0FC-54DD5AE25043}">
+  <dimension ref="A1:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SI schematics/3x3.xlsx
+++ b/SI schematics/3x3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubat\Documents\projekt-zaliczenie-npg\SI schematics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Studia\npg sem 2\projekt-zaliczenie-npg\SI schematics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794B6AA7-46AD-4A89-974B-81D7705F1ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8A9235-3CD3-4E62-90AD-F024DC029F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{8949F19C-7FE2-47A5-9C94-C8B26AFA58F0}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="3" xr2:uid="{8949F19C-7FE2-47A5-9C94-C8B26AFA58F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Move 1" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -81,12 +81,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,13 +112,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -465,9 +458,9 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -484,7 +477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -501,7 +494,7 @@
       </c>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -512,7 +505,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -525,7 +518,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -557,7 +550,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -568,7 +561,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -585,7 +578,7 @@
       </c>
       <c r="K10" s="1"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,12 +605,12 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -656,7 +649,7 @@
       </c>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -689,7 +682,7 @@
       </c>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -708,7 +701,7 @@
       </c>
       <c r="S3" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -776,7 +769,7 @@
       </c>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -799,7 +792,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -828,7 +821,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -865,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +883,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -898,9 +891,7 @@
       <c r="C13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
         <v>1</v>
       </c>
@@ -919,7 +910,7 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -927,7 +918,9 @@
       <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -981,7 +974,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1010,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1036,7 @@
       </c>
       <c r="S18" s="1"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1072,7 +1065,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1099,7 +1092,7 @@
       </c>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>0</v>
@@ -1128,7 +1121,7 @@
       </c>
       <c r="S22" s="1"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1156,7 @@
       </c>
       <c r="S23" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1190,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>0</v>
@@ -1219,7 +1212,7 @@
       </c>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -1263,13 +1256,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A856E1-C18D-4B5C-BDE8-280C966DF13A}">
   <dimension ref="A1:S139"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="K143" sqref="K143"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="Z71" sqref="Z71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1316,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1349,7 +1342,7 @@
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1427,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1453,7 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>0</v>
@@ -1491,7 +1484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -1532,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1571,7 +1564,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -1682,7 +1675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -1713,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1746,7 +1739,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -1793,7 +1786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -1863,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
         <v>0</v>
@@ -1896,7 +1889,7 @@
       </c>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1935,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -1974,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
         <v>0</v>
@@ -2007,7 +2000,7 @@
       </c>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -2046,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -2126,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
@@ -2157,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -2237,7 +2230,7 @@
       </c>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
@@ -2268,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>1</v>
       </c>
@@ -2309,7 +2302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>0</v>
@@ -2348,7 +2341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2379,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
@@ -2418,7 +2411,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>0</v>
@@ -2449,7 +2442,7 @@
       </c>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
@@ -2490,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -2529,7 +2522,7 @@
       </c>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2" t="s">
         <v>0</v>
@@ -2560,7 +2553,7 @@
       </c>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>1</v>
@@ -2601,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
@@ -2640,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2" t="s">
         <v>0</v>
@@ -2671,7 +2664,7 @@
       </c>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>0</v>
       </c>
@@ -2712,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>0</v>
       </c>
@@ -2751,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>1</v>
       </c>
@@ -2792,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
@@ -2823,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -2864,7 +2857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
         <v>0</v>
@@ -2903,7 +2896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
@@ -2934,10 +2927,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
       <c r="B61" s="2" t="s">
         <v>1</v>
       </c>
@@ -2945,85 +2936,91 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="E62" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M62" s="2"/>
+      <c r="G62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O62" s="2"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B63" s="2"/>
-      <c r="C63" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="C63" s="2"/>
       <c r="E63" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2" t="s">
+      <c r="G63" s="2"/>
+      <c r="I63" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
         <v>0</v>
       </c>
       <c r="M63" s="2" t="s">
@@ -3032,20 +3029,16 @@
       <c r="N63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O63" s="2"/>
+      <c r="Q63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -3084,7 +3077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +3110,7 @@
       </c>
       <c r="S66" s="2"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>1</v>
@@ -3156,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
@@ -3187,7 +3180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>0</v>
       </c>
@@ -3234,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
@@ -3267,7 +3260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -3300,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
@@ -3347,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2" t="s">
@@ -3378,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -3409,7 +3402,7 @@
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>1</v>
       </c>
@@ -3448,7 +3441,7 @@
       </c>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>1</v>
       </c>
@@ -3489,7 +3482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>1</v>
       </c>
@@ -3520,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>1</v>
       </c>
@@ -3559,7 +3552,7 @@
       </c>
       <c r="S82" s="2"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
@@ -3600,7 +3593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>1</v>
       </c>
@@ -3631,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>1</v>
       </c>
@@ -3672,7 +3665,7 @@
       </c>
       <c r="S86" s="2"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>0</v>
       </c>
@@ -3711,7 +3704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -3754,7 +3747,7 @@
       </c>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1" t="s">
         <v>1</v>
@@ -3787,7 +3780,7 @@
       </c>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>0</v>
       </c>
@@ -3861,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>0</v>
       </c>
@@ -3902,7 +3895,7 @@
       </c>
       <c r="S94" s="2"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>0</v>
       </c>
@@ -3970,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>1</v>
       </c>
@@ -4017,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1" t="s">
         <v>0</v>
@@ -4044,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>0</v>
       </c>
@@ -4077,7 +4070,7 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>0</v>
       </c>
@@ -4124,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>0</v>
       </c>
@@ -4155,7 +4148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -4202,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1" t="s">
         <v>1</v>
@@ -4233,7 +4226,7 @@
       </c>
       <c r="S106" s="2"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>1</v>
       </c>
@@ -4266,7 +4259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -4313,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1" t="s">
         <v>1</v>
@@ -4344,7 +4337,7 @@
       </c>
       <c r="S110" s="2"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -4377,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -4424,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1" t="s">
         <v>1</v>
@@ -4455,7 +4448,7 @@
       </c>
       <c r="S114" s="2"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1" t="s">
         <v>0</v>
@@ -4488,7 +4481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>1</v>
       </c>
@@ -4519,7 +4512,7 @@
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -4599,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>1</v>
       </c>
@@ -4630,7 +4623,7 @@
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1" t="s">
         <v>0</v>
@@ -4669,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>0</v>
       </c>
@@ -4710,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>1</v>
       </c>
@@ -4741,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2" t="s">
         <v>0</v>
@@ -4780,7 +4773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>0</v>
       </c>
@@ -4821,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +4845,7 @@
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>0</v>
       </c>
@@ -4885,7 +4878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>1</v>
       </c>
@@ -4932,7 +4925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>1</v>
       </c>
@@ -4963,7 +4956,7 @@
       </c>
       <c r="S133" s="2"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2" t="s">
         <v>0</v>
@@ -4996,7 +4989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>1</v>
       </c>
@@ -5043,12 +5036,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>1</v>
       </c>
@@ -5079,7 +5072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2" t="s">
         <v>0</v>
@@ -5112,7 +5105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>0</v>
       </c>
@@ -5168,13 +5161,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C28D61-CFC2-4D43-9CF9-8E6E71ACF33E}">
   <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="P94" sqref="P94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5203,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5232,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5255,7 +5248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5284,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -5313,7 +5306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5336,7 +5329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -5365,7 +5358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -5390,7 +5383,7 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -5417,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -5442,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -5471,7 +5464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -5498,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -5523,7 +5516,7 @@
       </c>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -5552,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -5579,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -5606,7 +5599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -5635,7 +5628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -5660,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -5685,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -5714,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
@@ -5741,7 +5734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -5770,7 +5763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -5799,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>0</v>
@@ -5822,7 +5815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -5851,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -5876,7 +5869,7 @@
       </c>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
@@ -5903,7 +5896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
@@ -5932,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>1</v>
       </c>
@@ -5957,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>1</v>
       </c>
@@ -5984,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -6013,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>0</v>
@@ -6036,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -6065,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>0</v>
       </c>
@@ -6094,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>0</v>
       </c>
@@ -6117,7 +6110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -6146,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -6175,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -6198,7 +6191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -6227,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -6252,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -6281,7 +6274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -6308,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>1</v>
       </c>
@@ -6337,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>1</v>
       </c>
@@ -6362,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2" t="s">
         <v>0</v>
@@ -6389,88 +6382,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I61" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K62" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>1</v>
       </c>
@@ -6499,7 +6492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
@@ -6526,7 +6519,7 @@
       </c>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2" t="s">
         <v>1</v>
@@ -6551,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>1</v>
       </c>
@@ -6578,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>1</v>
       </c>
@@ -6607,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2" t="s">
         <v>0</v>
@@ -6632,7 +6625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -6657,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>1</v>
       </c>
@@ -6686,7 +6679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
@@ -6713,7 +6706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>0</v>
       </c>
@@ -6736,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -6765,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -6794,7 +6787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>1</v>
       </c>
@@ -6821,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>1</v>
       </c>
@@ -6846,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>0</v>
       </c>
@@ -6875,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -6902,7 +6895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -6931,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>0</v>
       </c>
@@ -6956,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
@@ -6985,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>1</v>
       </c>
@@ -7014,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>1</v>
       </c>
@@ -7037,7 +7030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
@@ -7066,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>1</v>
       </c>
@@ -7095,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>0</v>
       </c>
@@ -7118,14 +7111,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C97" s="5"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="3"/>
       <c r="E97" s="1" t="s">
         <v>0</v>
       </c>
@@ -7143,14 +7136,14 @@
       </c>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C98" s="5" t="s">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="E98" s="1" t="s">
@@ -7172,14 +7165,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="5"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="3"/>
       <c r="E99" s="1" t="s">
         <v>0</v>
       </c>
@@ -7197,7 +7190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -7226,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -7255,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>0</v>
       </c>
@@ -7278,7 +7271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>0</v>
       </c>
@@ -7305,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
@@ -7334,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1" t="s">
         <v>0</v>
@@ -7359,7 +7352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>0</v>
       </c>
@@ -7388,7 +7381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -7417,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>0</v>
       </c>
@@ -7440,7 +7433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>0</v>
       </c>
@@ -7469,7 +7462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>1</v>
       </c>
@@ -7498,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>0</v>
       </c>
@@ -7521,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>0</v>
       </c>
@@ -7550,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>1</v>
       </c>
@@ -7577,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>1</v>
       </c>
@@ -7602,7 +7595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>0</v>
       </c>
@@ -7631,7 +7624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>1</v>
       </c>
@@ -7654,7 +7647,7 @@
       </c>
       <c r="K122" s="2"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>0</v>
       </c>
@@ -7683,7 +7676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +7703,7 @@
       </c>
       <c r="K125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>0</v>
       </c>
@@ -7739,7 +7732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>0</v>
       </c>
@@ -7764,7 +7757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>0</v>
       </c>
@@ -7789,7 +7782,7 @@
       </c>
       <c r="K129" s="2"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>0</v>
       </c>
@@ -7816,7 +7809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>0</v>
       </c>
@@ -7845,7 +7838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>0</v>
       </c>
@@ -7874,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>0</v>
       </c>
@@ -7903,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>1</v>
       </c>
@@ -7926,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>0</v>
       </c>
@@ -7955,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>1</v>
       </c>
@@ -7982,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>1</v>
       </c>
@@ -8007,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>0</v>
       </c>
@@ -8036,7 +8029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>1</v>
       </c>
@@ -8063,7 +8056,7 @@
       </c>
       <c r="K142" s="2"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>0</v>
       </c>
@@ -8088,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>0</v>
       </c>
@@ -8117,7 +8110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -8144,7 +8137,7 @@
       </c>
       <c r="K146" s="1"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1" t="s">
         <v>0</v>
@@ -8169,7 +8162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>1</v>
       </c>
@@ -8196,7 +8189,7 @@
       </c>
       <c r="K149" s="1"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>0</v>
       </c>
@@ -8225,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>1</v>
       </c>
@@ -8250,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>1</v>
       </c>
@@ -8277,7 +8270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2" t="s">
         <v>0</v>
@@ -8302,7 +8295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>0</v>
       </c>
@@ -8331,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -8352,7 +8345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1" t="s">
         <v>0</v>
@@ -8377,7 +8370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>1</v>
       </c>
@@ -8406,7 +8399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>1</v>
       </c>
@@ -8429,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>0</v>
       </c>
@@ -8458,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>1</v>
       </c>
@@ -8487,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>1</v>
       </c>
@@ -8510,7 +8503,7 @@
       </c>
       <c r="K165" s="1"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>0</v>
       </c>
@@ -8539,7 +8532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>1</v>
       </c>
@@ -8568,7 +8561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>1</v>
       </c>
@@ -8591,7 +8584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>0</v>
       </c>
@@ -8620,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>0</v>
       </c>
@@ -8662,21 +8655,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -8691,12 +8684,12 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8705,19 +8698,19 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -8726,52 +8719,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -8780,7 +8773,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -8789,40 +8782,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -8831,31 +8824,31 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -8873,20 +8866,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E160047-5317-4167-BA86-4E9C5D780D35}">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" style="4"/>
-    <col min="8" max="8" width="8.88671875" style="4"/>
-    <col min="12" max="12" width="8.88671875" style="4"/>
-    <col min="16" max="16" width="8.88671875" style="4"/>
-    <col min="20" max="20" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.85546875" style="4"/>
+    <col min="12" max="12" width="8.85546875" style="4"/>
+    <col min="16" max="16" width="8.85546875" style="4"/>
+    <col min="20" max="20" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -8932,7 +8925,7 @@
       </c>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -8968,7 +8961,7 @@
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9006,8 +8999,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -9063,7 +9056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -9097,7 +9090,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
@@ -9125,8 +9118,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -9162,7 +9155,7 @@
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -9210,7 +9203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -9246,8 +9239,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -9285,7 +9278,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
@@ -9321,7 +9314,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -9367,8 +9360,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -9414,7 +9407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>1</v>
       </c>
@@ -9450,7 +9443,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -9488,8 +9481,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>1</v>
       </c>
@@ -9525,7 +9518,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -9573,7 +9566,7 @@
       </c>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
@@ -9609,8 +9602,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -9666,7 +9659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -9692,7 +9685,7 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -9730,8 +9723,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -9769,7 +9762,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>1</v>
       </c>
@@ -9805,7 +9798,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -9864,9 +9857,9 @@
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -9898,7 +9891,7 @@
       </c>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -9930,7 +9923,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9964,7 +9957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10002,7 +9995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -10036,7 +10029,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -10062,7 +10055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>1</v>
       </c>
@@ -10092,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -10130,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
@@ -10160,7 +10153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -10174,7 +10167,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -10210,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -10240,7 +10233,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -10272,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -10304,7 +10297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -10332,7 +10325,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
@@ -10370,7 +10363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
@@ -10400,7 +10393,7 @@
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -10438,7 +10431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
@@ -10468,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>1</v>
       </c>
@@ -10506,7 +10499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -10534,7 +10527,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -10566,7 +10559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>1</v>
       </c>
@@ -10604,7 +10597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
@@ -10632,7 +10625,7 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
@@ -10673,13 +10666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F443FC-A85D-468C-B0FC-54DD5AE25043}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -10699,7 +10692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -10719,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -10739,7 +10732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10759,7 +10752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -10779,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -10799,7 +10792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -10819,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -10839,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -10859,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -10879,7 +10872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -10899,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
